--- a/biology/Zoologie/Ceroglossus_buqueti/Ceroglossus_buqueti.xlsx
+++ b/biology/Zoologie/Ceroglossus_buqueti/Ceroglossus_buqueti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceroglossus buqueti est une espèce de coléoptères, de la famille des Carabidae, de la sous-famille des Carabinae et de la tribu des Ceroglossini. Elle est trouvée au Chili.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ceroglossus buqueti andestus Kraatz-Koschlau, 1887
 Ceroglossus buqueti argentinensis Jiroux, 1996
@@ -530,9 +544,43 @@
 Ceroglossus buqueti peladosus Kraatz-Koschlau, 1887
 Ceroglossus buqueti snizeki Jiroux, 2006
 Ceroglossus buqueti subnitens Kraatz-Koschlau, 1885
-Ceroglossus buqueti sybarita Gerstaecker, 1858
-Synonymes de sous-espèces
-Synonymes de Ceroglossus buqueti andestus
+Ceroglossus buqueti sybarita Gerstaecker, 1858</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceroglossus_buqueti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceroglossus_buqueti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes de sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Synonymes de Ceroglossus buqueti andestus
 Ceroglossus buqueti var. andestus Kraatz-Koschlau, 1887
 Ceroglossus valdiviae var. andestus Kraatz-Koschlau, 1887
 Ceroglossus buqueti var. elegantissimus Faz, 1925
